--- a/data/extra/Table-3-2-edu-wage.xlsx
+++ b/data/extra/Table-3-2-edu-wage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\course-stat\data\extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AED75A-0EEF-4E37-BADF-E4DEAF30A59C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3511375-0F3F-468E-8C55-80724C8CDBCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9915" yWindow="8040" windowWidth="24420" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3195" yWindow="8002" windowWidth="24495" windowHeight="15795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3_2" sheetId="1" r:id="rId1"/>
@@ -134,8 +134,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.0000"/>
-    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -229,10 +229,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -249,8 +247,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -262,10 +260,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -273,6 +271,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,168 +886,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="22">
         <v>6</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="22">
         <v>4.4566999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="22">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="22">
         <v>5.77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="22">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="22">
         <v>5.9786999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="22">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="22">
         <v>7.3316999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="22">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="22">
         <v>7.3182</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="22">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="22">
         <v>6.5843999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="22">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="22">
         <v>7.8182</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="22">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="22">
         <v>7.8350999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="22">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="22">
         <v>11.0223</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="22">
         <v>15</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="22">
         <v>10.6738</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="22">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="22">
         <v>10.8361</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="22">
         <v>17</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="22">
         <v>13.615</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="22">
         <v>18</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="22">
         <v>13.531000000000001</v>
       </c>
     </row>
@@ -1056,7 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB43633C-1C2E-48F6-A324-610EFAF56227}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1075,24 +1082,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="18">
         <v>6</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="18">
         <v>4.4566999999999997</v>
       </c>
       <c r="E2" t="s">
@@ -1100,135 +1107,135 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="18">
         <v>7</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="18">
         <v>5.77</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <v>8</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>5.9786999999999999</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <v>9</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>7.3316999999999997</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>0.95278089831803936</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <v>10</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>7.3182</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>0.90779144019973013</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <v>11</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>6.5843999999999996</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>0.89940884385425113</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>12</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>7.8182</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>0.93870363448034722</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <v>13</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>7.8350999999999997</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <v>14</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>11.0223</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="18">
         <v>15</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <v>10.6738</v>
       </c>
       <c r="E11" t="s">
@@ -1236,183 +1243,183 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <v>16</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="18">
         <v>10.8361</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="15" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="18">
         <v>17</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="18">
         <v>13.615</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <v>95.425518501978047</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>95.425518501978047</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="14">
         <v>108.29478156720756</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="14">
         <v>4.957884909385061E-7</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <v>18</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>13.531000000000001</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="7">
         <v>11</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="14">
         <v>9.6928096472527479</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="14">
         <v>0.88116451338661339</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <v>12</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="15">
         <v>105.11832814923079</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <v>-1.4452747252748921E-2</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="9">
         <v>0.87462391639940262</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="11">
         <v>-1.6524527836200835E-2</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="9">
         <v>0.9871118466674893</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="11">
         <v>-1.9394870079090638</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="11">
         <v>1.910581513403566</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="11">
         <v>-1.9394870079090638</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="11">
         <v>1.910581513403566</v>
       </c>
     </row>
     <row r="19" spans="5:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <v>0.72409670329670339</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="10">
         <v>6.9581342760584947E-2</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="12">
         <v>10.406477865599271</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="10">
         <v>4.957884909385061E-7</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="12">
         <v>0.57094920046140618</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="12">
         <v>0.8772442061320006</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="12">
         <v>0.57094920046140618</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="12">
         <v>0.8772442061320006</v>
       </c>
     </row>
@@ -1423,198 +1430,198 @@
     </row>
     <row r="24" spans="5:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>1</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="16">
         <v>4.3301274725274714</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="16">
         <v>0.12657252747252823</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="16">
         <v>0.14083326034848015</v>
       </c>
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E27" s="9">
+      <c r="E27" s="7">
         <v>2</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="16">
         <v>5.0542241758241744</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="16">
         <v>0.71577582417582519</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="16">
         <v>0.79642119036598236</v>
       </c>
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E28" s="9">
+      <c r="E28" s="7">
         <v>3</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <v>5.7783208791208782</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="16">
         <v>0.20037912087912169</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="16">
         <v>0.22295552962939688</v>
       </c>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E29" s="9">
+      <c r="E29" s="7">
         <v>4</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="16">
         <v>6.5024175824175821</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="16">
         <v>0.82928241758241761</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="16">
         <v>0.92271639786248483</v>
       </c>
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E30" s="9">
+      <c r="E30" s="7">
         <v>5</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="16">
         <v>7.226514285714285</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="16">
         <v>9.1685714285715036E-2</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="16">
         <v>0.10201580333488265</v>
       </c>
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E31" s="9">
+      <c r="E31" s="7">
         <v>6</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="16">
         <v>7.950610989010988</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="16">
         <v>-1.3662109890109884</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="16">
         <v>-1.5201398893460509</v>
       </c>
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E32" s="9">
+      <c r="E32" s="7">
         <v>7</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="16">
         <v>8.6747076923076918</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="16">
         <v>-0.85650769230769175</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="16">
         <v>-0.95300910260661353</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E33" s="9">
+      <c r="E33" s="7">
         <v>8</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="16">
         <v>9.3988043956043956</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="16">
         <v>-1.5637043956043959</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="16">
         <v>-1.7398845756794608</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E34" s="9">
+      <c r="E34" s="7">
         <v>9</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="16">
         <v>10.122901098901098</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="16">
         <v>0.89939890109890186</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="16">
         <v>1.000732798221877</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E35" s="9">
+      <c r="E35" s="7">
         <v>10</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="16">
         <v>10.846997802197802</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="16">
         <v>-0.17319780219780156</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H35" s="16">
         <v>-0.19271173338939357</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E36" s="9">
+      <c r="E36" s="7">
         <v>11</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="16">
         <v>11.571094505494505</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="16">
         <v>-0.73499450549450529</v>
       </c>
-      <c r="H36" s="18">
+      <c r="H36" s="16">
         <v>-0.81780521108323956</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E37" s="9">
+      <c r="E37" s="7">
         <v>12</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="16">
         <v>12.295191208791209</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="16">
         <v>1.319808791208791</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="16">
         <v>1.4685096269635849</v>
       </c>
     </row>
     <row r="38" spans="5:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="10">
+      <c r="E38" s="8">
         <v>13</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38" s="17">
         <v>13.019287912087913</v>
       </c>
-      <c r="G38" s="19">
+      <c r="G38" s="17">
         <v>0.51171208791208755</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="17">
         <v>0.56936590537807563</v>
       </c>
     </row>
